--- a/2024/Peaks-dataset/shuffle-architecute/Teste09 ang copy/better_results.xlsx
+++ b/2024/Peaks-dataset/shuffle-architecute/Teste09 ang copy/better_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M28"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -497,42 +497,42 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>model_4_9_8</t>
+          <t>model_4_9_10</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.9986678323557201</v>
+        <v>0.9987122648723398</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8223256878130341</v>
+        <v>0.8218544522571122</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9817184707814153</v>
+        <v>0.9808924654786524</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9963696724685549</v>
+        <v>0.9964439528335514</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9960912933058543</v>
+        <v>0.9960287643235409</v>
       </c>
       <c r="H2" t="n">
-        <v>0.005590822547674179</v>
+        <v>0.005404348950833082</v>
       </c>
       <c r="I2" t="n">
-        <v>1.188108921051025</v>
+        <v>1.191260099411011</v>
       </c>
       <c r="J2" t="n">
-        <v>0.01673831231892109</v>
+        <v>0.01749459095299244</v>
       </c>
       <c r="K2" t="n">
-        <v>0.01339911296963692</v>
+        <v>0.01312495302408934</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01506871543824673</v>
+        <v>0.0153097752481699</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -542,42 +542,42 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>model_4_9_7</t>
+          <t>model_4_9_9</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.9986297474053337</v>
+        <v>0.9986944969854522</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8225910399438168</v>
+        <v>0.8220804741417392</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9820563291565594</v>
+        <v>0.9813236178847826</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9963191747964572</v>
+        <v>0.9964106268090572</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9961072433941922</v>
+        <v>0.9960640107375563</v>
       </c>
       <c r="H3" t="n">
-        <v>0.005750656593590975</v>
+        <v>0.005478916689753532</v>
       </c>
       <c r="I3" t="n">
-        <v>1.186334609985352</v>
+        <v>1.189748764038086</v>
       </c>
       <c r="J3" t="n">
-        <v>0.01642897352576256</v>
+        <v>0.01709983497858047</v>
       </c>
       <c r="K3" t="n">
-        <v>0.01358549483120441</v>
+        <v>0.01324795559048653</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01500722486525774</v>
+        <v>0.01517389342188835</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -587,42 +587,42 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>model_4_9_6</t>
+          <t>model_4_9_8</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.9985771614733746</v>
+        <v>0.9986678323557201</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8228773842842907</v>
+        <v>0.8223256878130341</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9823115164896767</v>
+        <v>0.9817184707814153</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9962568829330667</v>
+        <v>0.9963696724685549</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9961077252276904</v>
+        <v>0.9960912933058543</v>
       </c>
       <c r="H4" t="n">
-        <v>0.005971348378807306</v>
+        <v>0.005590822547674179</v>
       </c>
       <c r="I4" t="n">
-        <v>1.184419751167297</v>
+        <v>1.188108921051025</v>
       </c>
       <c r="J4" t="n">
-        <v>0.01619532704353333</v>
+        <v>0.01673831231892109</v>
       </c>
       <c r="K4" t="n">
-        <v>0.01381540670990944</v>
+        <v>0.01339911296963692</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01500536687672138</v>
+        <v>0.01506871543824673</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -632,42 +632,42 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>model_4_9_5</t>
+          <t>model_4_9_7</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.9985062117380202</v>
+        <v>0.9986297474053337</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8231854847462911</v>
+        <v>0.8225910399438168</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9824520495233455</v>
+        <v>0.9820563291565594</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9961797185242216</v>
+        <v>0.9963191747964572</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9960874792116126</v>
+        <v>0.9961072433941922</v>
       </c>
       <c r="H5" t="n">
-        <v>0.006269109901040792</v>
+        <v>0.005750656593590975</v>
       </c>
       <c r="I5" t="n">
-        <v>1.182359457015991</v>
+        <v>1.186334609985352</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0160666573792696</v>
+        <v>0.01642897352576256</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0141002107411623</v>
+        <v>0.01358549483120441</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01508341915905476</v>
+        <v>0.01500722486525774</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -677,42 +677,42 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>model_4_9_4</t>
+          <t>model_4_9_6</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.998412161626917</v>
+        <v>0.9985771614733746</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8235158782862448</v>
+        <v>0.8228773842842907</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9824383057795162</v>
+        <v>0.9823115164896767</v>
       </c>
       <c r="F6" t="n">
-        <v>0.996084086032705</v>
+        <v>0.9962568829330667</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9960400637828375</v>
+        <v>0.9961077252276904</v>
       </c>
       <c r="H6" t="n">
-        <v>0.006663818378001451</v>
+        <v>0.005971348378807306</v>
       </c>
       <c r="I6" t="n">
-        <v>1.180150151252747</v>
+        <v>1.184419751167297</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0160792414098978</v>
+        <v>0.01619532704353333</v>
       </c>
       <c r="K6" t="n">
-        <v>0.01445317920297384</v>
+        <v>0.01381540670990944</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01526621356606483</v>
+        <v>0.01500536687672138</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -722,42 +722,42 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>model_4_9_3</t>
+          <t>model_4_9_5</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.998289169998907</v>
+        <v>0.9985062117380202</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8238689518108174</v>
+        <v>0.8231854847462911</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9822221778555793</v>
+        <v>0.9824520495233455</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9959652426609141</v>
+        <v>0.9961797185242216</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9959575099706127</v>
+        <v>0.9960874792116126</v>
       </c>
       <c r="H7" t="n">
-        <v>0.007179987616837025</v>
+        <v>0.006269109901040792</v>
       </c>
       <c r="I7" t="n">
-        <v>1.177789211273193</v>
+        <v>1.182359457015991</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0162771251052618</v>
+        <v>0.0160666573792696</v>
       </c>
       <c r="K7" t="n">
-        <v>0.01489181630313396</v>
+        <v>0.0141002107411623</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01558447070419788</v>
+        <v>0.01508341915905476</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -767,42 +767,42 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>model_4_9_2</t>
+          <t>model_4_9_4</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.9981300707417377</v>
+        <v>0.998412161626917</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8242446935650867</v>
+        <v>0.8235158782862448</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9817448505201777</v>
+        <v>0.9824383057795162</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9958175038741133</v>
+        <v>0.996084086032705</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9958301071198901</v>
+        <v>0.9960400637828375</v>
       </c>
       <c r="H8" t="n">
-        <v>0.007847693748772144</v>
+        <v>0.006663818378001451</v>
       </c>
       <c r="I8" t="n">
-        <v>1.175276517868042</v>
+        <v>1.180150151252747</v>
       </c>
       <c r="J8" t="n">
-        <v>0.01671415939927101</v>
+        <v>0.0160792414098978</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0154371028766036</v>
+        <v>0.01445317920297384</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01607563160359859</v>
+        <v>0.01526621356606483</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -812,42 +812,42 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>model_4_9_1</t>
+          <t>model_4_9_3</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.9979260879712319</v>
+        <v>0.998289169998907</v>
       </c>
       <c r="D9" t="n">
-        <v>0.824642821755833</v>
+        <v>0.8238689518108174</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9809349161509847</v>
+        <v>0.9822221778555793</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9956337230021362</v>
+        <v>0.9959652426609141</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9956459583823023</v>
+        <v>0.9959575099706127</v>
       </c>
       <c r="H9" t="n">
-        <v>0.008703764528036118</v>
+        <v>0.007179987616837025</v>
       </c>
       <c r="I9" t="n">
-        <v>1.172614216804504</v>
+        <v>1.177789211273193</v>
       </c>
       <c r="J9" t="n">
-        <v>0.01745572313666344</v>
+        <v>0.0162771251052618</v>
       </c>
       <c r="K9" t="n">
-        <v>0.01611541584134102</v>
+        <v>0.01489181630313396</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01678555458784103</v>
+        <v>0.01558447070419788</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -857,42 +857,42 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>model_4_8_9</t>
+          <t>model_4_9_2</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.9976124638600389</v>
+        <v>0.9981300707417377</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8246517910828818</v>
+        <v>0.8242446935650867</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9972663397528347</v>
+        <v>0.9817448505201777</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9838912742555136</v>
+        <v>0.9958175038741133</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9940247244496195</v>
+        <v>0.9958301071198901</v>
       </c>
       <c r="H10" t="n">
-        <v>0.01001997850835323</v>
+        <v>0.007847693748772144</v>
       </c>
       <c r="I10" t="n">
-        <v>1.17255425453186</v>
+        <v>1.175276517868042</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0184475239366293</v>
+        <v>0.01671415939927101</v>
       </c>
       <c r="K10" t="n">
-        <v>0.03490959852933884</v>
+        <v>0.0154371028766036</v>
       </c>
       <c r="L10" t="n">
-        <v>0.02667856216430664</v>
+        <v>0.01607563160359859</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -902,42 +902,42 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>model_4_8_8</t>
+          <t>model_4_9_1</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.9976115669604239</v>
+        <v>0.9979260879712319</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8245195996293022</v>
+        <v>0.824642821755833</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9974411433520755</v>
+        <v>0.9809349161509847</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9843362559442369</v>
+        <v>0.9956337230021362</v>
       </c>
       <c r="G11" t="n">
-        <v>0.9942648173730124</v>
+        <v>0.9956459583823023</v>
       </c>
       <c r="H11" t="n">
-        <v>0.01002374198287725</v>
+        <v>0.008703764528036118</v>
       </c>
       <c r="I11" t="n">
-        <v>1.173438310623169</v>
+        <v>1.172614216804504</v>
       </c>
       <c r="J11" t="n">
-        <v>0.01726789958775043</v>
+        <v>0.01745572313666344</v>
       </c>
       <c r="K11" t="n">
-        <v>0.03394526988267899</v>
+        <v>0.01611541584134102</v>
       </c>
       <c r="L11" t="n">
-        <v>0.02560658939182758</v>
+        <v>0.01678555458784103</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -947,42 +947,42 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>model_4_8_10</t>
+          <t>model_4_9_0</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.9976047556074003</v>
+        <v>0.9976664637587822</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8247668166925171</v>
+        <v>0.8250626676995843</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9971066291519838</v>
+        <v>0.9797059625303468</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9834845541738128</v>
+        <v>0.9954052369336069</v>
       </c>
       <c r="G12" t="n">
-        <v>0.993805323489977</v>
+        <v>0.9953906527103874</v>
       </c>
       <c r="H12" t="n">
-        <v>0.01005232706665993</v>
+        <v>0.009793351404368877</v>
       </c>
       <c r="I12" t="n">
-        <v>1.171785116195679</v>
+        <v>1.169806838035583</v>
       </c>
       <c r="J12" t="n">
-        <v>0.01952529698610306</v>
+        <v>0.01858093775808811</v>
       </c>
       <c r="K12" t="n">
-        <v>0.03579100966453552</v>
+        <v>0.01695873215794563</v>
       </c>
       <c r="L12" t="n">
-        <v>0.02765815146267414</v>
+        <v>0.01776980049908161</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
@@ -992,42 +992,42 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>model_4_8_7</t>
+          <t>model_4_8_6</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.997598652393243</v>
+        <v>0.9975692339303172</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8243662528415829</v>
+        <v>0.8241862161207059</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9976315118867415</v>
+        <v>0.9978375619806812</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9848209215935226</v>
+        <v>0.9853449867353488</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9945263033729039</v>
+        <v>0.9948092057348975</v>
       </c>
       <c r="H13" t="n">
-        <v>0.01007794216275215</v>
+        <v>0.01020140573382378</v>
       </c>
       <c r="I13" t="n">
-        <v>1.174463748931885</v>
+        <v>1.175667643547058</v>
       </c>
       <c r="J13" t="n">
-        <v>0.01598323695361614</v>
+        <v>0.01459275279194117</v>
       </c>
       <c r="K13" t="n">
-        <v>0.03289493918418884</v>
+        <v>0.03175922483205795</v>
       </c>
       <c r="L13" t="n">
-        <v>0.02443910017609596</v>
+        <v>0.02317599207162857</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
@@ -1037,42 +1037,42 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>model_4_8_11</t>
+          <t>model_4_8_5</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.9975910297832959</v>
+        <v>0.9975174819302658</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8248676984407877</v>
+        <v>0.8239720612809048</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9969612280707111</v>
+        <v>0.9980586891987718</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9831140066882981</v>
+        <v>0.9859069614983309</v>
       </c>
       <c r="G14" t="n">
-        <v>0.9936055139669946</v>
+        <v>0.9951126995906532</v>
       </c>
       <c r="H14" t="n">
-        <v>0.01010993216186762</v>
+        <v>0.0104185976088047</v>
       </c>
       <c r="I14" t="n">
-        <v>1.1711106300354</v>
+        <v>1.177099704742432</v>
       </c>
       <c r="J14" t="n">
-        <v>0.02050650678575039</v>
+        <v>0.01310052257031202</v>
       </c>
       <c r="K14" t="n">
-        <v>0.03659403324127197</v>
+        <v>0.03054135479032993</v>
       </c>
       <c r="L14" t="n">
-        <v>0.02855026535689831</v>
+        <v>0.02182094380259514</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
@@ -1082,42 +1082,42 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>model_4_8_12</t>
+          <t>model_4_8_4</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.9975732532575674</v>
+        <v>0.9974357383712552</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8249566550454042</v>
+        <v>0.8237136855956938</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9968292210830743</v>
+        <v>0.9982932956996233</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9827772575008992</v>
+        <v>0.9865020771954888</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9934240273269894</v>
+        <v>0.9954344261178393</v>
       </c>
       <c r="H15" t="n">
-        <v>0.01018453575670719</v>
+        <v>0.01076165772974491</v>
       </c>
       <c r="I15" t="n">
-        <v>1.170515775680542</v>
+        <v>1.178827404975891</v>
       </c>
       <c r="J15" t="n">
-        <v>0.02139732614159584</v>
+        <v>0.01151733100414276</v>
       </c>
       <c r="K15" t="n">
-        <v>0.03732381016016006</v>
+        <v>0.02925166487693787</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0293605700135231</v>
+        <v>0.02038449235260487</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
@@ -1127,42 +1127,42 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>model_4_8_6</t>
+          <t>model_4_8_3</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.9975692339303172</v>
+        <v>0.9973141829933834</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8241862161207059</v>
+        <v>0.8233977024350183</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9978375619806812</v>
+        <v>0.9985386447786863</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9853449867353488</v>
+        <v>0.9871220040452666</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9948092057348975</v>
+        <v>0.9957702880475906</v>
       </c>
       <c r="H16" t="n">
-        <v>0.01020140573382378</v>
+        <v>0.01127179991453886</v>
       </c>
       <c r="I16" t="n">
-        <v>1.175667643547058</v>
+        <v>1.180940389633179</v>
       </c>
       <c r="J16" t="n">
-        <v>0.01459275279194117</v>
+        <v>0.00986164528876543</v>
       </c>
       <c r="K16" t="n">
-        <v>0.03175922483205795</v>
+        <v>0.0279082078486681</v>
       </c>
       <c r="L16" t="n">
-        <v>0.02317599207162857</v>
+        <v>0.01888492703437805</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
@@ -1172,539 +1172,44 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>model_4_8_13</t>
+          <t>model_4_8_2</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.9975529204348254</v>
+        <v>0.9971401974172905</v>
       </c>
       <c r="D17" t="n">
-        <v>0.825035460938792</v>
+        <v>0.8230070571068295</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9967095877902382</v>
+        <v>0.9987904461541655</v>
       </c>
       <c r="F17" t="n">
-        <v>0.982471957709119</v>
+        <v>0.9877534149921112</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9932595278564846</v>
+        <v>0.9961138150947421</v>
       </c>
       <c r="H17" t="n">
-        <v>0.01026986818760633</v>
+        <v>0.01200197823345661</v>
       </c>
       <c r="I17" t="n">
-        <v>1.169988632202148</v>
+        <v>1.183552742004395</v>
       </c>
       <c r="J17" t="n">
-        <v>0.02220464684069157</v>
+        <v>0.008162416517734528</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0379854328930378</v>
+        <v>0.02653986215591431</v>
       </c>
       <c r="L17" t="n">
-        <v>0.03009503334760666</v>
+        <v>0.01735113747417927</v>
       </c>
       <c r="M17" t="inlineStr">
-        <is>
-          <t>Hidden Size=[30, 21], regularizer=0.2, learning_rate=0.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>model_4_8_14</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>0.9975311226882331</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0.8251054802819607</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0.9966013292343187</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0.9821953639195758</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0.9931105884009112</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0.01036134921014309</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1.169520497322083</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.02293520793318748</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.03858484327793121</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0.0307600237429142</v>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>Hidden Size=[30, 21], regularizer=0.2, learning_rate=0.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>model_4_8_5</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>0.9975174819302658</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0.8239720612809048</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.9980586891987718</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0.9859069614983309</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0.9951126995906532</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0.0104185976088047</v>
-      </c>
-      <c r="I19" t="n">
-        <v>1.177099704742432</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.01310052257031202</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.03054135479032993</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0.02182094380259514</v>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>Hidden Size=[30, 21], regularizer=0.2, learning_rate=0.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>model_4_8_15</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>0.9975087230793133</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0.8251678738103523</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.9965035427670412</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0.9819451865487817</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0.9929759745853667</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0.0104553559795022</v>
-      </c>
-      <c r="I20" t="n">
-        <v>1.169103145599365</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.02359509654343128</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.03912701085209846</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0.03136104717850685</v>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>Hidden Size=[30, 21], regularizer=0.2, learning_rate=0.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>model_4_8_16</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>0.997486285776543</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0.8252235372431214</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.9964152294030275</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0.9817188380483725</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0.9928543002161231</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0.01054952014237642</v>
-      </c>
-      <c r="I21" t="n">
-        <v>1.168730974197388</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.02419106289744377</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.03961753472685814</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0.03190430253744125</v>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>Hidden Size=[30, 21], regularizer=0.2, learning_rate=0.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>model_4_8_4</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>0.9974357383712552</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0.8237136855956938</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.9982932956996233</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.9865020771954888</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0.9954344261178393</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0.01076165772974491</v>
-      </c>
-      <c r="I22" t="n">
-        <v>1.178827404975891</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.01151733100414276</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.02925166487693787</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0.02038449235260487</v>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>Hidden Size=[30, 21], regularizer=0.2, learning_rate=0.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>model_4_8_3</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>0.9973141829933834</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0.8233977024350183</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0.9985386447786863</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0.9871220040452666</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0.9957702880475906</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0.01127179991453886</v>
-      </c>
-      <c r="I23" t="n">
-        <v>1.180940389633179</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0.00986164528876543</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0.0279082078486681</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0.01888492703437805</v>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>Hidden Size=[30, 21], regularizer=0.2, learning_rate=0.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>model_4_8_2</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>0.9971401974172905</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0.8230070571068295</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0.9987904461541655</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0.9877534149921112</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0.9961138150947421</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0.01200197823345661</v>
-      </c>
-      <c r="I24" t="n">
-        <v>1.183552742004395</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.008162416517734528</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0.02653986215591431</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0.01735113747417927</v>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>Hidden Size=[30, 21], regularizer=0.2, learning_rate=0.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>model_4_8_1</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>0.9968977153848299</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0.8225205544673365</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0.9990426400545144</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0.9883762890075498</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0.9964555659786791</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0.0130196250975132</v>
-      </c>
-      <c r="I25" t="n">
-        <v>1.186805963516235</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.006460539996623993</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.02519001811742783</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0.01582528091967106</v>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>Hidden Size=[30, 21], regularizer=0.2, learning_rate=0.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>model_4_8_0</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>0.996566479547534</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0.8219131147566949</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.9992873501854894</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0.9889621056543014</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0.9967826701472144</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0.01440974976867437</v>
-      </c>
-      <c r="I26" t="n">
-        <v>1.190867900848389</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.004809165839105844</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.02392048016190529</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0.01436481717973948</v>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>Hidden Size=[30, 21], regularizer=0.2, learning_rate=0.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>model_4_7_3</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>0.9937682149524178</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0.8128903187853097</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0.9837206432854776</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0.9866165040932225</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0.9902201471973439</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0.02615346945822239</v>
-      </c>
-      <c r="I27" t="n">
-        <v>1.251203298568726</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0.01865335926413536</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0.01772973127663136</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0.01819153316318989</v>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>Hidden Size=[30, 21], regularizer=0.2, learning_rate=0.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>model_4_7_2</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>0.9928574229994493</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0.8117103277171249</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0.9842558414161202</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0.9905634095752682</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0.9917904557996833</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0.02997586503624916</v>
-      </c>
-      <c r="I28" t="n">
-        <v>1.259093999862671</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.01804011315107346</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.01250108517706394</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0.01527059637010098</v>
-      </c>
-      <c r="M28" t="inlineStr">
         <is>
           <t>Hidden Size=[30, 21], regularizer=0.2, learning_rate=0.1</t>
         </is>
